--- a/tools/GenPbMeta/Items.xlsx
+++ b/tools/GenPbMeta/Items.xlsx
@@ -71,7 +71,7 @@
     <t>client</t>
   </si>
   <si>
-    <t>SECTION_HEADER</t>
+    <t>SECTION_HEADER11</t>
   </si>
   <si>
     <t>SECTION_CHUNK_HEADER</t>
@@ -1086,12 +1086,12 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
     <col min="11" max="11" width="19.125" customWidth="1"/>
     <col min="12" max="12" width="27.625" customWidth="1"/>
